--- a/ROSEMARY GICHUHI.xlsx
+++ b/ROSEMARY GICHUHI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="1200" yWindow="930" windowWidth="17475" windowHeight="10965" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="930" windowWidth="17475" windowHeight="10965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER 21" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t xml:space="preserve">NO. </t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>RENT STATEMENT FOR THE MONTH OF DECEMBER 21 2021</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
   </si>
 </sst>
 </file>
@@ -412,6 +418,7 @@
       <sheetName val="SEPT 21"/>
       <sheetName val="OCTOBER 21"/>
       <sheetName val="NOVEMBER 21"/>
+      <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -426,6 +433,7 @@
       </sheetData>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2188,11 +2196,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
@@ -2339,10 +2350,12 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>3000</v>
+      </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -2367,10 +2380,12 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>3000</v>
+      </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -2381,19 +2396,23 @@
         <v>30</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
         <f>'NOVEMBER 21'!H9:H17</f>
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>3000</v>
+      </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3000</v>
+      </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2421,10 +2440,12 @@
         <f>C10+D10+E10</f>
         <v>3000</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>3000</v>
+      </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -2449,10 +2470,12 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>3000</v>
+      </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -2505,10 +2528,12 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>1500</v>
+      </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -2529,19 +2554,19 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>21450</v>
+        <v>24450</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
-        <v>21450</v>
+        <v>7950</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -2631,7 +2656,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="7">
         <f>E14</f>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2640,7 +2665,7 @@
       </c>
       <c r="H19" s="7">
         <f>G14</f>
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2695,7 +2720,7 @@
       </c>
       <c r="E22" s="7">
         <f>D19*D22</f>
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="15" t="s">
@@ -2706,7 +2731,7 @@
       </c>
       <c r="I22" s="7">
         <f>E22</f>
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="30"/>
@@ -2730,14 +2755,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>21600</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4">
+        <v>21600</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="30"/>
     </row>
@@ -2814,30 +2847,30 @@
       <c r="C30" s="6"/>
       <c r="D30" s="9">
         <f>D19+D20+D21-E22</f>
-        <v>18900</v>
+        <v>21600</v>
       </c>
       <c r="E30" s="9">
         <f>SUM(E24:E29)</f>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="F30" s="9">
         <f>D30-E30</f>
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="9">
         <f>H19+H20-I22</f>
-        <v>-2550</v>
+        <v>13650</v>
       </c>
       <c r="I30" s="9">
         <f>SUM(I24:I29)</f>
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="J30" s="9">
         <f>H30-I30</f>
-        <v>-2550</v>
+        <v>-7950</v>
       </c>
       <c r="K30" s="30"/>
     </row>
